--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Bmp2</t>
+  </si>
+  <si>
+    <t>Rgmb</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp2</t>
-  </si>
-  <si>
-    <t>Rgmb</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H2">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I2">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J2">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="N2">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="O2">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="P2">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="Q2">
-        <v>22.30825095478044</v>
+        <v>167.49289782937</v>
       </c>
       <c r="R2">
-        <v>200.774258593024</v>
+        <v>1507.43608046433</v>
       </c>
       <c r="S2">
-        <v>0.06851330495173323</v>
+        <v>0.2909723168546621</v>
       </c>
       <c r="T2">
-        <v>0.06851330495173323</v>
+        <v>0.2909723168546621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H3">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I3">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J3">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>21.393154</v>
       </c>
       <c r="O3">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="P3">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="Q3">
-        <v>18.39864489183289</v>
+        <v>118.7799966754733</v>
       </c>
       <c r="R3">
-        <v>165.587804026496</v>
+        <v>1069.01997007926</v>
       </c>
       <c r="S3">
-        <v>0.05650608695087641</v>
+        <v>0.206347202039937</v>
       </c>
       <c r="T3">
-        <v>0.05650608695087641</v>
+        <v>0.206347202039937</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H4">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I4">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J4">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="N4">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="O4">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="P4">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="Q4">
-        <v>3.951359411278223</v>
+        <v>43.69353992672333</v>
       </c>
       <c r="R4">
-        <v>35.56223470150401</v>
+        <v>393.24185934051</v>
       </c>
       <c r="S4">
-        <v>0.0121354512672269</v>
+        <v>0.07590537096690574</v>
       </c>
       <c r="T4">
-        <v>0.0121354512672269</v>
+        <v>0.07590537096690574</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H5">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I5">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J5">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="N5">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="O5">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="P5">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="Q5">
-        <v>58.01422333601423</v>
+        <v>100.9977270114266</v>
       </c>
       <c r="R5">
-        <v>522.1280100241281</v>
+        <v>908.97954310284</v>
       </c>
       <c r="S5">
-        <v>0.1781738148371758</v>
+        <v>0.1754554551650749</v>
       </c>
       <c r="T5">
-        <v>0.1781738148371758</v>
+        <v>0.1754554551650749</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H6">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I6">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J6">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="N6">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="O6">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="P6">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="Q6">
-        <v>1.585487703587556</v>
+        <v>8.824913225786666</v>
       </c>
       <c r="R6">
-        <v>14.269389332288</v>
+        <v>79.42421903208</v>
       </c>
       <c r="S6">
-        <v>0.0048693643779294</v>
+        <v>0.0153308318181013</v>
       </c>
       <c r="T6">
-        <v>0.0048693643779294</v>
+        <v>0.0153308318181013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H7">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I7">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J7">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="N7">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="O7">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="P7">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="Q7">
-        <v>11.92341860052622</v>
+        <v>39.52585951342333</v>
       </c>
       <c r="R7">
-        <v>107.310767404736</v>
+        <v>355.73273562081</v>
       </c>
       <c r="S7">
-        <v>0.03661931257187891</v>
+        <v>0.06866518561287902</v>
       </c>
       <c r="T7">
-        <v>0.03661931257187891</v>
+        <v>0.06866518561287902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>5.355062</v>
       </c>
       <c r="I8">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J8">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="N8">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="O8">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="P8">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="Q8">
-        <v>15.43392891141244</v>
+        <v>17.94939848009267</v>
       </c>
       <c r="R8">
-        <v>138.905360202712</v>
+        <v>161.544586320834</v>
       </c>
       <c r="S8">
-        <v>0.04740082403835321</v>
+        <v>0.03118208670089829</v>
       </c>
       <c r="T8">
-        <v>0.04740082403835321</v>
+        <v>0.03118208670089829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>5.355062</v>
       </c>
       <c r="I9">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J9">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>21.393154</v>
       </c>
       <c r="O9">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="P9">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="Q9">
         <v>12.72907400506089</v>
@@ -1013,10 +1013,10 @@
         <v>114.561666045548</v>
       </c>
       <c r="S9">
-        <v>0.0390936488400509</v>
+        <v>0.02211322511382064</v>
       </c>
       <c r="T9">
-        <v>0.0390936488400509</v>
+        <v>0.02211322511382064</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>5.355062</v>
       </c>
       <c r="I10">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J10">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="N10">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="O10">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="P10">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="Q10">
-        <v>2.733741895800223</v>
+        <v>4.682423967310889</v>
       </c>
       <c r="R10">
-        <v>24.603677062202</v>
+        <v>42.141815705798</v>
       </c>
       <c r="S10">
-        <v>0.008395893185259056</v>
+        <v>0.008134409087913819</v>
       </c>
       <c r="T10">
-        <v>0.008395893185259056</v>
+        <v>0.008134409087913817</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>5.355062</v>
       </c>
       <c r="I11">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J11">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="N11">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="O11">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="P11">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="Q11">
-        <v>40.13705066496823</v>
+        <v>10.82343473189244</v>
       </c>
       <c r="R11">
-        <v>361.233455984714</v>
+        <v>97.410912587032</v>
       </c>
       <c r="S11">
-        <v>0.1232692781539134</v>
+        <v>0.01880270698684949</v>
       </c>
       <c r="T11">
-        <v>0.1232692781539134</v>
+        <v>0.01880270698684949</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,40 +1169,40 @@
         <v>5.355062</v>
       </c>
       <c r="I12">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J12">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="N12">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="O12">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="P12">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="Q12">
-        <v>1.096917214921556</v>
+        <v>0.9457229894204445</v>
       </c>
       <c r="R12">
-        <v>9.872254934294</v>
+        <v>8.511506904784</v>
       </c>
       <c r="S12">
-        <v>0.003368862211791722</v>
+        <v>0.001642930613181683</v>
       </c>
       <c r="T12">
-        <v>0.003368862211791722</v>
+        <v>0.001642930613181683</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>5.355062</v>
       </c>
       <c r="I13">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J13">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="N13">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="O13">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="P13">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="Q13">
-        <v>8.249198712824223</v>
+        <v>4.235793946304222</v>
       </c>
       <c r="R13">
-        <v>74.242788415418</v>
+        <v>38.12214551673799</v>
       </c>
       <c r="S13">
-        <v>0.02533501475148407</v>
+        <v>0.00735851366981945</v>
       </c>
       <c r="T13">
-        <v>0.02533501475148407</v>
+        <v>0.00735851366981945</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H14">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I14">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J14">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="N14">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="O14">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="P14">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="Q14">
-        <v>0.5673682914675555</v>
+        <v>0.1442337298796667</v>
       </c>
       <c r="R14">
-        <v>5.106314623208</v>
+        <v>1.298103568917</v>
       </c>
       <c r="S14">
-        <v>0.001742506700863993</v>
+        <v>0.000250565982770387</v>
       </c>
       <c r="T14">
-        <v>0.001742506700863993</v>
+        <v>0.000250565982770387</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H15">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I15">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J15">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>21.393154</v>
       </c>
       <c r="O15">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="P15">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="Q15">
-        <v>0.4679348344591111</v>
+        <v>0.1022854233082222</v>
       </c>
       <c r="R15">
-        <v>4.211413510132</v>
+        <v>0.9205688097739999</v>
       </c>
       <c r="S15">
-        <v>0.001437125755659736</v>
+        <v>0.0001776924692697892</v>
       </c>
       <c r="T15">
-        <v>0.001437125755659736</v>
+        <v>0.0001776924692697892</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H16">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I16">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J16">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="N16">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="O16">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="P16">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="Q16">
-        <v>0.1004953746797778</v>
+        <v>0.03762596693322222</v>
       </c>
       <c r="R16">
-        <v>0.9044583721180001</v>
+        <v>0.338633702399</v>
       </c>
       <c r="S16">
-        <v>0.0003086423164967515</v>
+        <v>6.53646507663253E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003086423164967515</v>
+        <v>6.53646507663253E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H17">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I17">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J17">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="N17">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="O17">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="P17">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="Q17">
-        <v>1.475482360391778</v>
+        <v>0.08697251683511109</v>
       </c>
       <c r="R17">
-        <v>13.279341243526</v>
+        <v>0.7827526515159999</v>
       </c>
       <c r="S17">
-        <v>0.004531514958897411</v>
+        <v>0.000151090554012469</v>
       </c>
       <c r="T17">
-        <v>0.00453151495889741</v>
+        <v>0.000151090554012469</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,46 +1535,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H18">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I18">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J18">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="N18">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="O18">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="P18">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="Q18">
-        <v>0.04032388963844444</v>
+        <v>0.00759942759911111</v>
       </c>
       <c r="R18">
-        <v>0.362915006746</v>
+        <v>0.068394848392</v>
       </c>
       <c r="S18">
-        <v>0.0001238430997230087</v>
+        <v>1.320189144697503E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001238430997230087</v>
+        <v>1.320189144697503E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06561933333333334</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H19">
-        <v>0.196858</v>
+        <v>0.043031</v>
       </c>
       <c r="I19">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J19">
-        <v>0.009074975985828031</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="N19">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="O19">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="P19">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="Q19">
-        <v>0.3032496654957778</v>
+        <v>0.03403703809655555</v>
       </c>
       <c r="R19">
-        <v>2.729246989462</v>
+        <v>0.3063333428689999</v>
       </c>
       <c r="S19">
-        <v>0.0009313431541871319</v>
+        <v>5.912988527975973E-05</v>
       </c>
       <c r="T19">
-        <v>0.0009313431541871319</v>
+        <v>5.912988527975974E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H20">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I20">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J20">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="N20">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="O20">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="P20">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="Q20">
-        <v>17.98128163423155</v>
+        <v>14.92056724531533</v>
       </c>
       <c r="R20">
-        <v>161.831534708084</v>
+        <v>134.285105207838</v>
       </c>
       <c r="S20">
-        <v>0.05522427708592322</v>
+        <v>0.02592033498983325</v>
       </c>
       <c r="T20">
-        <v>0.05522427708592322</v>
+        <v>0.02592033498983325</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H21">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I21">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J21">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>21.393154</v>
       </c>
       <c r="O21">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="P21">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="Q21">
-        <v>14.82999344766511</v>
+        <v>10.58113478698178</v>
       </c>
       <c r="R21">
-        <v>133.469941028986</v>
+        <v>95.23021308283599</v>
       </c>
       <c r="S21">
-        <v>0.04554601190257612</v>
+        <v>0.0183817782354929</v>
       </c>
       <c r="T21">
-        <v>0.04554601190257612</v>
+        <v>0.0183817782354929</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H22">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I22">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J22">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="N22">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="O22">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="P22">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="Q22">
-        <v>3.184942941348778</v>
+        <v>3.892298772731778</v>
       </c>
       <c r="R22">
-        <v>28.664486472139</v>
+        <v>35.030688954586</v>
       </c>
       <c r="S22">
-        <v>0.009781625974928281</v>
+        <v>0.00676178635912125</v>
       </c>
       <c r="T22">
-        <v>0.009781625974928281</v>
+        <v>0.006761786359121249</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H23">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I23">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J23">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="N23">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="O23">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="P23">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="Q23">
-        <v>46.76162603292477</v>
+        <v>8.997058365024888</v>
       </c>
       <c r="R23">
-        <v>420.854634296323</v>
+        <v>80.97352528522399</v>
       </c>
       <c r="S23">
-        <v>0.1436147347870022</v>
+        <v>0.01562988611024473</v>
       </c>
       <c r="T23">
-        <v>0.1436147347870022</v>
+        <v>0.01562988611024473</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H24">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I24">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J24">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="N24">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="O24">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="P24">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="Q24">
-        <v>1.277962175681444</v>
+        <v>0.7861390717208889</v>
       </c>
       <c r="R24">
-        <v>11.501659581133</v>
+        <v>7.075251645488</v>
       </c>
       <c r="S24">
-        <v>0.003924889155887882</v>
+        <v>0.001365697949184863</v>
       </c>
       <c r="T24">
-        <v>0.003924889155887882</v>
+        <v>0.001365697949184863</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.079636333333333</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H25">
-        <v>6.238909</v>
+        <v>4.451434</v>
       </c>
       <c r="I25">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J25">
-        <v>0.2876080695362463</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="N25">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="O25">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="P25">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="Q25">
-        <v>9.610719743716777</v>
+        <v>3.521034339018444</v>
       </c>
       <c r="R25">
-        <v>86.496477693451</v>
+        <v>31.689309051166</v>
       </c>
       <c r="S25">
-        <v>0.0295165306299286</v>
+        <v>0.006116817683772675</v>
       </c>
       <c r="T25">
-        <v>0.0295165306299286</v>
+        <v>0.006116817683772675</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H26">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I26">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J26">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="N26">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="O26">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="P26">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="Q26">
-        <v>0.5212255573831112</v>
+        <v>0.6429597855726666</v>
       </c>
       <c r="R26">
-        <v>4.691030016448</v>
+        <v>5.786638070154</v>
       </c>
       <c r="S26">
-        <v>0.001600792712705866</v>
+        <v>0.001116963769073021</v>
       </c>
       <c r="T26">
-        <v>0.001600792712705866</v>
+        <v>0.001116963769073021</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H27">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I27">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J27">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>21.393154</v>
       </c>
       <c r="O27">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="P27">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="Q27">
-        <v>0.4298787905102222</v>
+        <v>0.4559641762875555</v>
       </c>
       <c r="R27">
-        <v>3.868909114592</v>
+        <v>4.103677586588</v>
       </c>
       <c r="S27">
-        <v>0.001320247684419998</v>
+        <v>0.0007921109163224072</v>
       </c>
       <c r="T27">
-        <v>0.001320247684419998</v>
+        <v>0.0007921109163224072</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,46 +2155,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H28">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I28">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J28">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="N28">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="O28">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="P28">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="Q28">
-        <v>0.09232232126755557</v>
+        <v>0.1677276435375555</v>
       </c>
       <c r="R28">
-        <v>0.8309008914080002</v>
+        <v>1.509548791838</v>
       </c>
       <c r="S28">
-        <v>0.0002835411598909088</v>
+        <v>0.0002913801222211441</v>
       </c>
       <c r="T28">
-        <v>0.0002835411598909088</v>
+        <v>0.0002913801222211441</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H29">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I29">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J29">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="N29">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="O29">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="P29">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="Q29">
-        <v>1.355484836339556</v>
+        <v>0.3877028682657777</v>
       </c>
       <c r="R29">
-        <v>12.199363527056</v>
+        <v>3.489325814392</v>
       </c>
       <c r="S29">
-        <v>0.004162977462367183</v>
+        <v>0.0006735258825446731</v>
       </c>
       <c r="T29">
-        <v>0.004162977462367183</v>
+        <v>0.0006735258825446731</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,46 +2279,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H30">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I30">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J30">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="N30">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="O30">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="P30">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="Q30">
-        <v>0.03704444215288889</v>
+        <v>0.03387644723377777</v>
       </c>
       <c r="R30">
-        <v>0.333399979376</v>
+        <v>0.304888025104</v>
       </c>
       <c r="S30">
-        <v>0.0001137712305250825</v>
+        <v>5.885090332880119E-05</v>
       </c>
       <c r="T30">
-        <v>0.0001137712305250825</v>
+        <v>5.885090332880119E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.06028266666666667</v>
+        <v>0.06394066666666666</v>
       </c>
       <c r="H31">
-        <v>0.180848</v>
+        <v>0.191822</v>
       </c>
       <c r="I31">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="J31">
-        <v>0.008336929447038108</v>
+        <v>0.003196418608761225</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="N31">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="O31">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="P31">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="Q31">
-        <v>0.2785870805635556</v>
+        <v>0.1517290493308888</v>
       </c>
       <c r="R31">
-        <v>2.507283725072</v>
+        <v>1.365561443978</v>
       </c>
       <c r="S31">
-        <v>0.0008555991971290699</v>
+        <v>0.0002635870152711782</v>
       </c>
       <c r="T31">
-        <v>0.0008555991971290699</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H32">
-        <v>1.980498</v>
-      </c>
-      <c r="I32">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J32">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>8.646358666666666</v>
-      </c>
-      <c r="N32">
-        <v>25.939076</v>
-      </c>
-      <c r="O32">
-        <v>0.1920122657718527</v>
-      </c>
-      <c r="P32">
-        <v>0.1920122657718527</v>
-      </c>
-      <c r="Q32">
-        <v>5.708032015538666</v>
-      </c>
-      <c r="R32">
-        <v>51.372288139848</v>
-      </c>
-      <c r="S32">
-        <v>0.01753056028227319</v>
-      </c>
-      <c r="T32">
-        <v>0.01753056028227319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H33">
-        <v>1.980498</v>
-      </c>
-      <c r="I33">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J33">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>7.131051333333333</v>
-      </c>
-      <c r="N33">
-        <v>21.393154</v>
-      </c>
-      <c r="O33">
-        <v>0.1583613838652608</v>
-      </c>
-      <c r="P33">
-        <v>0.1583613838652608</v>
-      </c>
-      <c r="Q33">
-        <v>4.707677634521333</v>
-      </c>
-      <c r="R33">
-        <v>42.36909871069199</v>
-      </c>
-      <c r="S33">
-        <v>0.01445826273167764</v>
-      </c>
-      <c r="T33">
-        <v>0.01445826273167764</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H34">
-        <v>1.980498</v>
-      </c>
-      <c r="I34">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J34">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>1.531490333333333</v>
-      </c>
-      <c r="N34">
-        <v>4.594471</v>
-      </c>
-      <c r="O34">
-        <v>0.03401026261433021</v>
-      </c>
-      <c r="P34">
-        <v>0.03401026261433021</v>
-      </c>
-      <c r="Q34">
-        <v>1.011037847395333</v>
-      </c>
-      <c r="R34">
-        <v>9.099340626558</v>
-      </c>
-      <c r="S34">
-        <v>0.003105108710528317</v>
-      </c>
-      <c r="T34">
-        <v>0.003105108710528317</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H35">
-        <v>1.980498</v>
-      </c>
-      <c r="I35">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J35">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>22.48548233333333</v>
-      </c>
-      <c r="N35">
-        <v>67.456447</v>
-      </c>
-      <c r="O35">
-        <v>0.4993418126917434</v>
-      </c>
-      <c r="P35">
-        <v>0.4993418126917434</v>
-      </c>
-      <c r="Q35">
-        <v>14.84415093006733</v>
-      </c>
-      <c r="R35">
-        <v>133.597358370606</v>
-      </c>
-      <c r="S35">
-        <v>0.04558949249238742</v>
-      </c>
-      <c r="T35">
-        <v>0.04558949249238742</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H36">
-        <v>1.980498</v>
-      </c>
-      <c r="I36">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J36">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.6145123333333333</v>
-      </c>
-      <c r="N36">
-        <v>1.843537</v>
-      </c>
-      <c r="O36">
-        <v>0.01364665867065751</v>
-      </c>
-      <c r="P36">
-        <v>0.01364665867065751</v>
-      </c>
-      <c r="Q36">
-        <v>0.4056801490473333</v>
-      </c>
-      <c r="R36">
-        <v>3.651121341426</v>
-      </c>
-      <c r="S36">
-        <v>0.001245928594800411</v>
-      </c>
-      <c r="T36">
-        <v>0.001245928594800411</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H37">
-        <v>1.980498</v>
-      </c>
-      <c r="I37">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J37">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>4.621346333333333</v>
-      </c>
-      <c r="N37">
-        <v>13.864039</v>
-      </c>
-      <c r="O37">
-        <v>0.1026276163861554</v>
-      </c>
-      <c r="P37">
-        <v>0.1026276163861554</v>
-      </c>
-      <c r="Q37">
-        <v>3.050855723491333</v>
-      </c>
-      <c r="R37">
-        <v>27.457701511422</v>
-      </c>
-      <c r="S37">
-        <v>0.009369816081547645</v>
-      </c>
-      <c r="T37">
-        <v>0.009369816081547645</v>
+        <v>0.0002635870152711782</v>
       </c>
     </row>
   </sheetData>
